--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_160.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_160.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,544 +488,622 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_23</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.03715277777777778</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Bb:7']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_216</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1483870967741935</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb', 'F:7']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(32.8, 35.47)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(15.25, 22.53)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:02:09.380000', '0:02:14.380000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:28.009637', '0:00:33.826235')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5050505050505051</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>jaah_52</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jaah_55</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1367331855136733</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['F', 'F', 'F', 'F', 'F']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(19.14, 24.78)]</t>
+          <t>[['C', 'C', 'C', 'C', 'C']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(7.16, 19.2)]</t>
+          <t>[('0:00:00.590000', '0:00:09.550000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:48.530000', '0:00:52.390000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_227</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06971153846153846</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B']]</t>
-        </is>
+          <t>isophonics_149</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
+          <t>[['B', 'E', 'B']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(24.64, 33.0)]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(20.045192, 25.141972)]</t>
+          <t>[('0:00:19.602494', '0:00:26.162131')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:16.020000', '0:00:22.500000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_87</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']]</t>
-        </is>
+          <t>schubert-winterreise_99</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_265</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1987179487179487</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(140.86, 144.1)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(4.34, 18.1)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:01:15.800000', '0:01:19.600000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:45.425056', '0:01:55.003287')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1350574712643678</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_121</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.04807692307692308</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['Eb:maj', 'Db:maj', 'Ab:maj']]</t>
+          <t>[['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(55.985137, 62.486724)]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(45.887, 51.649)]</t>
+          <t>[('0:04:43.300000', '0:04:47.580000'), ('0:00:26.960000', '0:00:30.840000'), ('0:00:10.160000', '0:00:13.840000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+          <t>[('0:01:10.060000', '0:01:20.280000'), ('0:00:41.580000', '0:00:43.480000'), ('0:01:30.780000', '0:01:41.320000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(27.0, 49.86)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(0.32, 10.96)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:00:23.260000', '0:00:29.800000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:07.900000', '0:00:20.520000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1571294559099437</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D/5', 'A', 'D', 'A', 'A']]</t>
-        </is>
+          <t>isophonics_52</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_58</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'A', 'A']]</t>
+          <t>[['G', 'G:7', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(33.309, 39.869)]</t>
+          <t>[['C', 'C:7', 'F', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(32.874217, 42.916848)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:58.265237', '0:01:10.536984')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:31.527551', '0:00:54.712675')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5111111111111111</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C/3', 'F', 'C/3', 'F']]</t>
-        </is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3541666666666666</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>[['C', 'F/5', 'C']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(76.585782, 78.536258)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(154.76, 160.98)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:55.180000', '0:01:02.060000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3452380952380952</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7/G', 'D:maj/F#', 'D:maj/A']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(74.4, 86.06)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(224.26, 235.06)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:01.320000', '0:01:03.700000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_6</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1748310810810811</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A', 'A/7', 'A/b7', 'A/6', 'A/b6', 'A/5']]</t>
-        </is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb', 'Eb', 'Eb', 'Eb', 'Eb']]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(84.787426, 88.282029)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(176.81, 184.5)]</t>
+          <t>[('0:00:40.100000', '0:01:24.580000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
+          <t>[('0:00:49.020000', '0:01:44.600000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_70</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_74</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1320512820512821</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C', 'A:min7', 'D:7']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5515151515151515</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Eb', 'C:min7', 'F:7']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(19.551, 23.76)]</t>
+          <t>[['C', 'G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(3.22, 5.65)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:01:52.140000', '0:01:54.760000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:10.519024', '0:01:22.732721')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_64</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_3</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0532015065913371</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(25.11, 28.41)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(43.61, 45.41)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:01:04.220000', '0:01:10.300000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:55.820000', '0:01:01.680000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.162280701754386</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G', 'A', 'D']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(0.414179, 8.780606)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(29.965374, 34.307505)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:09.240000', '0:00:28.040000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:08.340000', '0:00:26.400000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1057579318448884</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526), (13.648526, 21.12535)]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(3.82, 6.46), (1.36, 4.74)]</t>
+          <t>[('0:00:00.220000', '0:00:21.940000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>[('0:00:00.560000', '0:00:25.400000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -1029,76 +1112,44 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.119815668202765</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A', 'A:7', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'D#:7', 'G#:maj']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(64.871315, 72.777709)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(17.98, 26.32)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:16.560000', '0:00:45.260000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:39.020000', '0:00:57.200000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>jaah_21</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_53</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3071428571428572</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Ab']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:maj', 'B:7/A', 'E:maj/G#', 'E:maj/B']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(46.75, 47.79)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(215.06, 226.54)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
